--- a/doc/breakeven-analysis-ideale-app.xlsx
+++ b/doc/breakeven-analysis-ideale-app.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="440" windowWidth="31960" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="200" yWindow="440" windowWidth="32600" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Breakeven Analysis Data" sheetId="2" r:id="rId1"/>
@@ -802,10 +802,10 @@
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.5</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.49</c:v>
+                  <c:v>15.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,7 +1136,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
@@ -1145,7 +1145,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -1261,13 +1261,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:protection>
-    <c:chartObject val="0"/>
-    <c:data val="0"/>
-    <c:formatting val="0"/>
-    <c:selection val="0"/>
-    <c:userInterface val="0"/>
-  </c:protection>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1368,37 +1361,37 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,37 +1442,37 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11250.0</c:v>
+                  <c:v>8750.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12000.0</c:v>
+                  <c:v>10150.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12750.0</c:v>
+                  <c:v>11550.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13500.0</c:v>
+                  <c:v>12950.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14250.0</c:v>
+                  <c:v>14350.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15000.0</c:v>
+                  <c:v>15750.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15750.0</c:v>
+                  <c:v>17150.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16500.0</c:v>
+                  <c:v>18550.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17250.0</c:v>
+                  <c:v>19950.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18000.0</c:v>
+                  <c:v>21350.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18750.0</c:v>
+                  <c:v>22750.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,37 +1602,37 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-11250.0</c:v>
+                  <c:v>-8750.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9001.0</c:v>
+                  <c:v>-7151.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6752.0</c:v>
+                  <c:v>-5552.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4503.0</c:v>
+                  <c:v>-3953.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2254.0</c:v>
+                  <c:v>-2354.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.0</c:v>
+                  <c:v>-755.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2244.0</c:v>
+                  <c:v>844.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4493.0</c:v>
+                  <c:v>2443.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6742.0</c:v>
+                  <c:v>4042.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8991.0</c:v>
+                  <c:v>5641.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11240.0</c:v>
+                  <c:v>7240.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,11 +1649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1787214576"/>
-        <c:axId val="-1787210304"/>
+        <c:axId val="982246128"/>
+        <c:axId val="982250400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1787214576"/>
+        <c:axId val="982246128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1727,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1787210304"/>
+        <c:crossAx val="982250400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1744,7 +1737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1787210304"/>
+        <c:axId val="982250400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1821,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1787214576"/>
+        <c:crossAx val="982246128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,7 +1920,7 @@
     <tabColor indexed="39"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
+    <sheetView zoomScale="91" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2359,8 +2352,8 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2525,7 +2518,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="32">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G13" s="18"/>
     </row>
@@ -2561,7 +2554,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G16" s="18"/>
     </row>
@@ -2586,7 +2579,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="34">
         <f>IF(SUM(Variable_costs_unit),SUM(Variable_costs_unit),0)</f>
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="G18" s="20"/>
     </row>
@@ -2600,7 +2593,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="46">
         <f>IF(Variable_Unit_Cost,Variable_Unit_Cost*Sales_volume_units,0)</f>
-        <v>7500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -2621,7 +2614,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="33">
         <f>IF(Sales_price_unit&gt;0,MAX(0,Sales_price_unit-Variable_Unit_Cost),0)</f>
-        <v>22.49</v>
+        <v>15.989999999999998</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
@@ -2636,7 +2629,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="33">
         <f>IF(OR(Total_Sales&lt;&gt;0,Total_variable&lt;&gt;0),Total_Sales-Total_variable,0)</f>
-        <v>22490</v>
+        <v>15990</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -2696,7 +2689,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="32">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2709,7 +2702,7 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="32">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2787,7 +2780,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="31">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2802,7 +2795,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="48">
         <f>IF(SUM(Fixed_costs)&lt;&gt;0,SUM(Fixed_costs),0)</f>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -2822,7 +2815,7 @@
       <c r="E37" s="3"/>
       <c r="G37" s="49">
         <f>IF(OR(Gross_margin&lt;&gt;0,Total_fixed&lt;&gt;0),Gross_margin-Total_fixed,0)</f>
-        <v>11240</v>
+        <v>7240</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -2855,7 +2848,7 @@
       <c r="E41" s="27"/>
       <c r="F41" s="40">
         <f>IF(AND(Unit_contrib_margin&gt;0,Total_fixed&gt;0),Total_fixed/Unit_contrib_margin,"")</f>
-        <v>500.22232103156961</v>
+        <v>547.21701063164483</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="27"/>
@@ -2982,47 +2975,47 @@
       <c r="C45" s="36"/>
       <c r="D45" s="38">
         <f t="shared" ref="D45:N45" si="1">Total_fixed</f>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="E45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="F45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="G45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="H45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="I45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="J45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="K45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="M45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="N45" s="38">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -3036,43 +3029,43 @@
       </c>
       <c r="E46" s="38">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="38">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="G46" s="38">
         <f t="shared" si="2"/>
-        <v>2250</v>
+        <v>4200</v>
       </c>
       <c r="H46" s="38">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5600</v>
       </c>
       <c r="I46" s="38">
         <f t="shared" si="2"/>
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="J46" s="38">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>8400</v>
       </c>
       <c r="K46" s="38">
         <f t="shared" si="2"/>
-        <v>5250</v>
+        <v>9800</v>
       </c>
       <c r="L46" s="38">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>11200</v>
       </c>
       <c r="M46" s="38">
         <f t="shared" si="2"/>
-        <v>6750</v>
+        <v>12600</v>
       </c>
       <c r="N46" s="38">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -3082,47 +3075,47 @@
       <c r="C47" s="39"/>
       <c r="D47" s="38">
         <f t="shared" ref="D47:N47" si="3">SUM(D45:D46)</f>
-        <v>11250</v>
+        <v>8750</v>
       </c>
       <c r="E47" s="38">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>10150</v>
       </c>
       <c r="F47" s="38">
         <f t="shared" si="3"/>
-        <v>12750</v>
+        <v>11550</v>
       </c>
       <c r="G47" s="38">
         <f t="shared" si="3"/>
-        <v>13500</v>
+        <v>12950</v>
       </c>
       <c r="H47" s="38">
         <f t="shared" si="3"/>
-        <v>14250</v>
+        <v>14350</v>
       </c>
       <c r="I47" s="38">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>15750</v>
       </c>
       <c r="J47" s="38">
         <f t="shared" si="3"/>
-        <v>15750</v>
+        <v>17150</v>
       </c>
       <c r="K47" s="38">
         <f t="shared" si="3"/>
-        <v>16500</v>
+        <v>18550</v>
       </c>
       <c r="L47" s="38">
         <f t="shared" si="3"/>
-        <v>17250</v>
+        <v>19950</v>
       </c>
       <c r="M47" s="38">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>21350</v>
       </c>
       <c r="N47" s="38">
         <f t="shared" si="3"/>
-        <v>18750</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3182,47 +3175,47 @@
       <c r="C49" s="39"/>
       <c r="D49" s="53">
         <f t="shared" ref="D49:N49" si="5">D48-D47</f>
-        <v>-11250</v>
+        <v>-8750</v>
       </c>
       <c r="E49" s="53">
         <f t="shared" si="5"/>
-        <v>-9001</v>
+        <v>-7151</v>
       </c>
       <c r="F49" s="53">
         <f t="shared" si="5"/>
-        <v>-6752</v>
+        <v>-5552</v>
       </c>
       <c r="G49" s="53">
         <f t="shared" si="5"/>
-        <v>-4503</v>
+        <v>-3953</v>
       </c>
       <c r="H49" s="53">
         <f t="shared" si="5"/>
-        <v>-2254</v>
+        <v>-2354</v>
       </c>
       <c r="I49" s="53">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-755</v>
       </c>
       <c r="J49" s="53">
         <f t="shared" si="5"/>
-        <v>2244</v>
+        <v>844</v>
       </c>
       <c r="K49" s="53">
         <f t="shared" si="5"/>
-        <v>4493</v>
+        <v>2443</v>
       </c>
       <c r="L49" s="53">
         <f t="shared" si="5"/>
-        <v>6742</v>
+        <v>4042</v>
       </c>
       <c r="M49" s="53">
         <f t="shared" si="5"/>
-        <v>8991</v>
+        <v>5641</v>
       </c>
       <c r="N49" s="53">
         <f t="shared" si="5"/>
-        <v>11240</v>
+        <v>7240</v>
       </c>
     </row>
   </sheetData>
